--- a/data/case1/18/Q2_3.xlsx
+++ b/data/case1/18/Q2_3.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.072153755303247635</v>
+        <v>0.090022772380280003</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.00599999998221179</v>
+        <v>-0.0059999999481554767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999860995672</v>
+        <v>0.018620277782507522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.007999999973904437</v>
+        <v>-0.0079999999253299592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999880985229</v>
+        <v>-0.0029999999668222088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999903319576</v>
+        <v>-0.0019999999743127717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999668582973</v>
+        <v>-0.0099999999073414614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999660322914</v>
+        <v>-0.0099999999080830904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999887980735</v>
+        <v>-0.0019999999792332801</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999883086872</v>
+        <v>-0.0019999999825888182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999854979364</v>
+        <v>-0.002999999974295342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999839300244</v>
+        <v>-0.0034999999710674246</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999838047913</v>
+        <v>-0.0034999999776337276</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999707691671</v>
+        <v>0.035120838623606154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0009999999914542812</v>
+        <v>7.0942426608766596e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.014182126466446121</v>
+        <v>-0.0019999999922495348</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999885680353</v>
+        <v>-0.0019999999915665256</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999826143551</v>
+        <v>-0.003999999974335644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.032344941196941868</v>
+        <v>-0.00399999996494671</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999873447933</v>
+        <v>-0.0039999999621773696</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999872000203</v>
+        <v>-0.0039999999617243986</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999870774516</v>
+        <v>-0.00399999996136291</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999821928043</v>
+        <v>-0.0049999999493195446</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999936788804</v>
+        <v>-0.01999999981626388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999935925494</v>
+        <v>-0.019999999813501201</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999890180646</v>
+        <v>-0.0024999999698422926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.054408402676377587</v>
+        <v>-0.0024999999695545227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999887900799</v>
+        <v>-0.0019999999727238205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999728365125</v>
+        <v>-0.0069999999297269966</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999817513583</v>
+        <v>0.019976916534831801</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999739795982</v>
+        <v>-0.0069999999267906787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999659097227</v>
+        <v>-0.0099999999008861806</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.050979686200490093</v>
+        <v>-0.0039999999518194329</v>
       </c>
     </row>
   </sheetData>
